--- a/results/figureA1_police_report_only.xlsx
+++ b/results/figureA1_police_report_only.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>year</t>
   </si>
@@ -34,67 +34,70 @@
     <t>total_dof</t>
   </si>
   <si>
-    <t>(2.57)</t>
+    <t>(3.74)</t>
+  </si>
+  <si>
+    <t>(3.18)</t>
+  </si>
+  <si>
+    <t>(1.03)</t>
+  </si>
+  <si>
+    <t>(0.79)</t>
   </si>
   <si>
     <t>(2.02)</t>
   </si>
   <si>
-    <t>(1.26)</t>
-  </si>
-  <si>
-    <t>(0.88)</t>
-  </si>
-  <si>
-    <t>(2.33)</t>
-  </si>
-  <si>
-    <t>(1.58)</t>
-  </si>
-  <si>
-    <t>(1.9)</t>
-  </si>
-  <si>
-    <t>(1.67)</t>
-  </si>
-  <si>
-    <t>(1.29)</t>
-  </si>
-  <si>
-    <t>(0.73)</t>
+    <t>(1.42)</t>
+  </si>
+  <si>
+    <t>(1.83)</t>
+  </si>
+  <si>
+    <t>(1.52)</t>
+  </si>
+  <si>
+    <t>(1.45)</t>
+  </si>
+  <si>
+    <t>(0.75)</t>
   </si>
   <si>
     <t>(1.78)</t>
   </si>
   <si>
-    <t>(1.4)</t>
+    <t>(1.49)</t>
+  </si>
+  <si>
+    <t>(2.41)</t>
+  </si>
+  <si>
+    <t>(2.04)</t>
+  </si>
+  <si>
+    <t>(2.53)</t>
+  </si>
+  <si>
+    <t>(2.12)</t>
+  </si>
+  <si>
+    <t>(2.27)</t>
+  </si>
+  <si>
+    <t>(1.38)</t>
+  </si>
+  <si>
+    <t>(2.3)</t>
+  </si>
+  <si>
+    <t>(1.88)</t>
+  </si>
+  <si>
+    <t>(2.89)</t>
   </si>
   <si>
     <t>(2.85)</t>
-  </si>
-  <si>
-    <t>(2.11)</t>
-  </si>
-  <si>
-    <t>(1.98)</t>
-  </si>
-  <si>
-    <t>(2.23)</t>
-  </si>
-  <si>
-    <t>(1.47)</t>
-  </si>
-  <si>
-    <t>(2.19)</t>
-  </si>
-  <si>
-    <t>(1.69)</t>
-  </si>
-  <si>
-    <t>(3.36)</t>
-  </si>
-  <si>
-    <t>(3.16)</t>
   </si>
 </sst>
 </file>
@@ -598,13 +601,13 @@
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -671,16 +674,16 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:12">
